--- a/src/main/webapp/resources/templates/template_담당자.xlsx
+++ b/src/main/webapp/resources/templates/template_담당자.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOSA\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82104\OneDrive\바탕 화면\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792D3A06-DE51-40D5-8DFA-E2B976987FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4100" yWindow="4100" windowWidth="19200" windowHeight="11260" xr2:uid="{BDE49334-A2AC-4B12-A02A-B3B47B02F179}"/>
+    <workbookView xWindow="4104" yWindow="4104" windowWidth="19200" windowHeight="11256"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -61,7 +60,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -152,11 +151,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -472,24 +471,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B1E92D-1FEB-41E9-99E9-CB83B57E66D7}">
-  <dimension ref="B1:L7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.9140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.69921875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B1" s="6"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -502,74 +501,64 @@
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
     </row>
-    <row r="2" spans="2:12" ht="26" x14ac:dyDescent="0.65">
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="2:12" ht="27.6" x14ac:dyDescent="0.6">
+      <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>6</v>
-      </c>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C4" s="3"/>
+      <c r="G4" s="4"/>
+      <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C5" s="3"/>
       <c r="G5" s="4"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C6" s="3"/>
       <c r="G6" s="4"/>
       <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="C7" s="3"/>
-      <c r="G7" s="4"/>
-      <c r="I7" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/main/webapp/resources/templates/template_담당자.xlsx
+++ b/src/main/webapp/resources/templates/template_담당자.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82104\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOSA\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FC8884A-3C68-4FB3-8AFB-8A8E3B62DB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4104" yWindow="4104" windowWidth="19200" windowHeight="11256"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -471,24 +472,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.69921875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.69921875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.9140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B1" s="6"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -501,7 +502,7 @@
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
     </row>
-    <row r="2" spans="2:12" ht="27.6" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:12" ht="26" x14ac:dyDescent="0.65">
       <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
@@ -516,7 +517,7 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -545,17 +546,17 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C4" s="3"/>
       <c r="G4" s="4"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C5" s="3"/>
       <c r="G5" s="4"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C6" s="3"/>
       <c r="G6" s="4"/>
       <c r="I6" s="5"/>
@@ -565,6 +566,20 @@
     <mergeCell ref="B2:L2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{99F512BF-86B6-4802-A1C1-9ED03EB64974}">
+      <formula1>3</formula1>
+      <formula2>3</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{B7D1B756-2C50-48FD-B727-07A5494988C7}">
+      <formula1>11</formula1>
+      <formula2>13</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{08B5635B-4E2C-4F3E-A2AB-DCD35842E5B5}">
+      <formula1>5</formula1>
+      <formula2>5</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/main/webapp/resources/templates/template_담당자.xlsx
+++ b/src/main/webapp/resources/templates/template_담당자.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOSA\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FC8884A-3C68-4FB3-8AFB-8A8E3B62DB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA49E1CB-68C2-410E-8849-B2E16A946233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="21640" windowHeight="12750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>비밀번호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>담당자명</t>
@@ -41,7 +41,7 @@
   </si>
   <si>
     <t>Email</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>팀코드</t>
@@ -51,30 +51,21 @@
   </si>
   <si>
     <t>담당자코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자 정보</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>담당자 정보</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -127,25 +118,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -155,13 +138,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -473,49 +455,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L6"/>
+  <dimension ref="B1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.9140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B1" s="6"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
     </row>
     <row r="2" spans="2:12" ht="26" x14ac:dyDescent="0.65">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
@@ -542,30 +524,15 @@
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="C4" s="3"/>
-      <c r="G4" s="4"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="C5" s="3"/>
-      <c r="G5" s="4"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="C6" s="3"/>
-      <c r="G6" s="4"/>
-      <c r="I6" s="5"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:L2"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{99F512BF-86B6-4802-A1C1-9ED03EB64974}">
       <formula1>3</formula1>

--- a/src/main/webapp/resources/templates/template_담당자.xlsx
+++ b/src/main/webapp/resources/templates/template_담당자.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOSA\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA49E1CB-68C2-410E-8849-B2E16A946233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E58D2F-786A-4A5D-BFB8-5FE378104079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="21640" windowHeight="12750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>비밀번호</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -56,13 +56,29 @@
   <si>
     <t>담당자 정보</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자 등록시 담당자 코드 30000번으로 등록하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정 시 기존에 등록되어 있던 담당자 코드를 일치시켜주세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생년월일, 전화번호, 팀코드, 입사일자는 숫자만 입력해주세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,8 +110,17 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -108,8 +133,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -117,13 +148,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -139,6 +207,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -455,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L3"/>
+  <dimension ref="B1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -469,6 +546,7 @@
     <col min="6" max="6" width="13.9140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="55.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.45">
@@ -484,7 +562,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="2:12" ht="26" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:12" ht="26.5" thickBot="1" x14ac:dyDescent="0.7">
       <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
@@ -525,8 +603,25 @@
         <v>6</v>
       </c>
       <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="K3" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="K4" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="K5" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K6" s="8" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
